--- a/部署文档.xlsx
+++ b/部署文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\redis-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F7D61-2922-433D-8D9A-E5A16F3CA114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453003A-A4B6-4ACB-8AD8-DBAB5F9EF311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5966" yWindow="2374" windowWidth="24685" windowHeight="13055" xr2:uid="{E9025E7B-B803-4BAC-B68D-958618AF3C65}"/>
+    <workbookView xWindow="14426" yWindow="2537" windowWidth="24685" windowHeight="13054" xr2:uid="{E9025E7B-B803-4BAC-B68D-958618AF3C65}"/>
   </bookViews>
   <sheets>
     <sheet name="部署文档" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>单例部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>集群模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哨兵端口号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,6 +214,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,24 +239,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,164 +555,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036079-AE5E-4240-8409-A5488E349B3B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.640625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.0703125" customWidth="1"/>
+    <col min="4" max="4" width="11.2109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>6379</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>6001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9" t="s">
+      <c r="D10" s="7">
+        <v>26379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>6001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7" t="s">
+      <c r="D11" s="7">
+        <v>26379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>6001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="5">
+        <v>26379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>6002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>6002</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>6002</v>
       </c>
     </row>
